--- a/example.xlsx
+++ b/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Urun Bilgisi</t>
   </si>
@@ -24,6 +24,14 @@
   </si>
   <si>
     <t>85
+,00
+TL</t>
+  </si>
+  <si>
+    <t>Arko Nem Değerli Yağlar Hindistan Cevizi Krem 250 ml</t>
+  </si>
+  <si>
+    <t>111
 ,00
 TL</t>
   </si>
@@ -70,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -92,6 +100,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
